--- a/R/CountryResultMean.xlsx
+++ b/R/CountryResultMean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhash\OneDrive\Documents\GitHub\IRHEIS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B6169E-4315-4C27-8B20-A1A63A1448BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EDB920-F38A-4FFF-8763-F1419CB4663C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,15 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +433,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" customWidth="1"/>
+    <col min="5" max="5" width="21.9296875" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -458,7 +462,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -473,7 +477,7 @@
         <v>90</v>
       </c>
       <c r="B2">
-        <v>2323035.0382380811</v>
+        <v>1894246.8268239391</v>
       </c>
       <c r="C2">
         <v>0.26899349775697778</v>
@@ -484,14 +488,14 @@
       <c r="E2">
         <v>3937550.800183746</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.38846734371104241</v>
+      <c r="F2">
+        <v>0.2345144729709743</v>
       </c>
       <c r="G2">
-        <v>0.223912525027367</v>
+        <v>0.18600161894107939</v>
       </c>
       <c r="H2">
-        <v>9.7083547281572286E-2</v>
+        <v>7.7433240208207271E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -499,7 +503,7 @@
         <v>91</v>
       </c>
       <c r="B3">
-        <v>3122296.6888398849</v>
+        <v>2531511.3684293348</v>
       </c>
       <c r="C3">
         <v>0.28507008420456648</v>
@@ -510,14 +514,14 @@
       <c r="E3">
         <v>5055970.9554488016</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.41671917919155338</v>
+      <c r="F3">
+        <v>0.25537077474131281</v>
       </c>
       <c r="G3">
-        <v>0.22925937405426949</v>
+        <v>0.18262839347871909</v>
       </c>
       <c r="H3">
-        <v>9.8322576861252203E-2</v>
+        <v>7.490340061083868E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -525,7 +529,7 @@
         <v>92</v>
       </c>
       <c r="B4">
-        <v>4018539.1640189691</v>
+        <v>3324392.2678623721</v>
       </c>
       <c r="C4">
         <v>0.281526344793467</v>
@@ -536,14 +540,14 @@
       <c r="E4">
         <v>6470219.5450928677</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.4152571865717854</v>
+      <c r="F4">
+        <v>0.25810285897878149</v>
       </c>
       <c r="G4">
-        <v>0.2141673517627655</v>
+        <v>0.1777495716988361</v>
       </c>
       <c r="H4">
-        <v>9.3729616332476687E-2</v>
+        <v>7.5857750279664293E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -551,7 +555,7 @@
         <v>93</v>
       </c>
       <c r="B5">
-        <v>4488240.7276886394</v>
+        <v>3620138.3881304138</v>
       </c>
       <c r="C5">
         <v>0.26574686024692562</v>
@@ -562,14 +566,14 @@
       <c r="E5">
         <v>7315962.4012307152</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.40971407446880032</v>
+      <c r="F5">
+        <v>0.2388355019852102</v>
       </c>
       <c r="G5">
-        <v>0.2309128159753574</v>
+        <v>0.19339029598647459</v>
       </c>
       <c r="H5">
-        <v>0.1009309397341429</v>
+        <v>8.1083768651194058E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -577,7 +581,7 @@
         <v>94</v>
       </c>
       <c r="B6">
-        <v>5461605.7305775387</v>
+        <v>3903986.9106719261</v>
       </c>
       <c r="C6">
         <v>0.25486543317088522</v>
@@ -588,14 +592,14 @@
       <c r="E6">
         <v>8142758.9908271655</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.48610309891169318</v>
+      <c r="F6">
+        <v>0.2252947414798642</v>
       </c>
       <c r="G6">
-        <v>0.2448073437064385</v>
+        <v>0.18068157221546041</v>
       </c>
       <c r="H6">
-        <v>0.1102297319117389</v>
+        <v>7.2118647043054235E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -603,7 +607,7 @@
         <v>95</v>
       </c>
       <c r="B7">
-        <v>5425396.4177777339</v>
+        <v>4340412.0055652075</v>
       </c>
       <c r="C7">
         <v>0.25043003558019711</v>
@@ -614,14 +618,14 @@
       <c r="E7">
         <v>8883859.726056451</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.42194772400921599</v>
+      <c r="F7">
+        <v>0.24417048822138379</v>
       </c>
       <c r="G7">
-        <v>0.227229382102659</v>
+        <v>0.18071461823260071</v>
       </c>
       <c r="H7">
-        <v>0.1016995370867929</v>
+        <v>7.9247060156947671E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -629,7 +633,7 @@
         <v>96</v>
       </c>
       <c r="B8">
-        <v>5852058.3033651616</v>
+        <v>4879449.8419021722</v>
       </c>
       <c r="C8">
         <v>0.2456215572131934</v>
@@ -640,14 +644,14 @@
       <c r="E8">
         <v>10254645.39459441</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.38484101034466012</v>
+      <c r="F8">
+        <v>0.24085917361453041</v>
       </c>
       <c r="G8">
-        <v>0.22056001477102249</v>
+        <v>0.1829023697769292</v>
       </c>
       <c r="H8">
-        <v>9.9424398461324698E-2</v>
+        <v>8.065465798035816E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -655,7 +659,7 @@
         <v>97</v>
       </c>
       <c r="B9">
-        <v>7843864.2511698706</v>
+        <v>6512712.9229058409</v>
       </c>
       <c r="C9">
         <v>0.24846244989521499</v>
@@ -666,14 +670,14 @@
       <c r="E9">
         <v>12679061.191243939</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.46975582743260502</v>
+      <c r="F9">
+        <v>0.3165279366372647</v>
       </c>
       <c r="G9">
-        <v>0.2471163711703678</v>
+        <v>0.20126909938573001</v>
       </c>
       <c r="H9">
-        <v>0.11478264986096209</v>
+        <v>8.7652643750605039E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -681,29 +685,28 @@
         <v>98</v>
       </c>
       <c r="B10">
-        <v>11843584.30976305</v>
+        <v>9267713.5934797041</v>
       </c>
       <c r="C10">
-        <v>0.25078609866613821</v>
+        <v>0.24998392505899569</v>
       </c>
       <c r="D10">
-        <v>2293509.7243506559</v>
+        <v>2269774.7689237078</v>
       </c>
       <c r="E10">
-        <v>16450388.15951512</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.58204257164403284</v>
+        <v>16017853.04425741</v>
+      </c>
+      <c r="F10">
+        <v>0.38778895919819928</v>
       </c>
       <c r="G10">
-        <v>0.2693815729313046</v>
+        <v>0.2274514372350617</v>
       </c>
       <c r="H10">
-        <v>0.1374604357212578</v>
+        <v>0.1127282706687297</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>